--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s3_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.26741428083736</v>
+        <v>108.1470106876883</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.372999906539917</v>
+        <v>0.3989999294281006</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.61741428083737</v>
+        <v>34.1470106876883</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.65</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.53018219295431</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.84866676379884</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>23.42811290419563</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.30208569452857</v>
+        <v>22.35722294236235</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>179.015</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>181.0900000000001</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>192.9250000000009</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>190.0899999999983</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>189.2699999999986</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>78.50999999993189</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>89.9649999999359</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>78.14499999996653</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>86.69499999993654</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95499999996602</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>124.109999999807</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>128.6899999998108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>120.5399999998378</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>124.8699999998085</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>124.2199999998363</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>113.2950000000019</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>121.65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>123.55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>125.9099999999999</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>126.0849999999991</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>124.1099999998026</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>128.6899999998065</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>120.5399999998335</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>124.8699999998042</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>124.219999999832</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>179.015</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>181.0900000000001</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>192.9250000000009</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>190.0899999999983</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>189.2699999999986</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
